--- a/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" createdVersion="5" indent="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtInteger" cacheId="9" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtInteger" cacheId="9" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" createdVersion="5" indent="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -405,7 +405,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="1" dataOnRows="1" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="1" dataOnRows="1" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" createdVersion="5" indent="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -484,7 +484,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="2" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="2" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" createdVersion="5" indent="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -564,7 +564,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtNoColumnLabels" cacheId="3" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1" rowHeaderCaption="Pastry name">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtNoColumnLabels" cacheId="3" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" createdVersion="5" indent="1" rowHeaderCaption="Pastry name">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -649,7 +649,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtCollapsedFields" cacheId="4" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtCollapsedFields" cacheId="4" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" createdVersion="5" indent="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisRow" allDrilled="1" showAll="0" defaultSubtotal="0">
@@ -734,7 +734,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtFieldAsValueAndLabel" cacheId="5" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtFieldAsValueAndLabel" cacheId="5" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" createdVersion="5" indent="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisRow" dataField="1" showAll="0" defaultSubtotal="0">
@@ -812,7 +812,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtHidesubTotals" cacheId="6" dataOnRows="1" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1" colHeaderCaption="Measures">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtHidesubTotals" cacheId="6" dataOnRows="1" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" createdVersion="5" indent="1" colHeaderCaption="Measures">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisCol" showAll="0" defaultSubtotal="0">
@@ -889,7 +889,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtFilter" cacheId="7" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtFilter" cacheId="7" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" createdVersion="5" indent="1">
   <x:location ref="A5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtSort" cacheId="8" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1" rowHeaderCaption="Pastry name">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtSort" cacheId="8" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" createdVersion="5" indent="1" rowHeaderCaption="Pastry name">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">

--- a/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
@@ -1385,10 +1385,10 @@
   <x:cols>
     <x:col min="1" max="1" width="9.625425" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="8.925425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="19.395425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="19.325425" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="10.685425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.355425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.735425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.335425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.625425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
@@ -1383,12 +1383,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="8.565425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="8.135425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="16.595425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.645425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="9.115425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="11.105425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.295425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.765425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="20.645425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="14.155425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="13.795425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="15.615425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
@@ -1383,12 +1383,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.295425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.765425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="20.645425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="14.155425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="13.795425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="15.615425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="15.025425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.335425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="24.595425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="16.155425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.685425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="18.055425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
@@ -1383,12 +1383,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="15.025425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.335425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="24.595425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="16.155425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.685425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="18.055425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="11.025425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="10.335425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="20.595425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.155425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.685425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="14.055425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
@@ -167,9 +167,9 @@
         <x:item x="4"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="Code" defaultSubtotal="0"/>
-    <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Quality" defaultSubtotal="0"/>
+    <x:pivotField name="Code"/>
+    <x:pivotField name="NumberOfOrders" dataField="1"/>
+    <x:pivotField name="Quality"/>
     <x:pivotField name="Month" axis="axisCol" showAll="0" defaultSubtotal="0">
       <x:items count="3">
         <x:item x="0"/>
@@ -177,7 +177,7 @@
         <x:item x="2"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="BakeDate" defaultSubtotal="0"/>
+    <x:pivotField name="BakeDate"/>
   </x:pivotFields>
   <x:rowFields count="1">
     <x:field x="0"/>
@@ -253,8 +253,8 @@
         <x:item x="4"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Quality" dataField="1" defaultSubtotal="0"/>
+    <x:pivotField name="NumberOfOrders" dataField="1"/>
+    <x:pivotField name="Quality" dataField="1"/>
     <x:pivotField name="Month" axis="axisCol" showAll="0" defaultSubtotal="0">
       <x:items count="3">
         <x:item x="0"/>
@@ -417,9 +417,9 @@
         <x:item x="4"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="Code" defaultSubtotal="0"/>
-    <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Quality" dataField="1" defaultSubtotal="0"/>
+    <x:pivotField name="Code"/>
+    <x:pivotField name="NumberOfOrders" dataField="1"/>
+    <x:pivotField name="Quality" dataField="1"/>
     <x:pivotField name="Month" axis="axisCol" showAll="0" defaultSubtotal="0">
       <x:items count="3">
         <x:item x="0"/>
@@ -427,7 +427,7 @@
         <x:item x="2"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="BakeDate" defaultSubtotal="0"/>
+    <x:pivotField name="BakeDate"/>
   </x:pivotFields>
   <x:rowFields count="2">
     <x:field x="-2"/>
@@ -496,9 +496,9 @@
         <x:item x="4"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="Code" defaultSubtotal="0"/>
-    <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Quality" dataField="1" defaultSubtotal="0"/>
+    <x:pivotField name="Code"/>
+    <x:pivotField name="NumberOfOrders" dataField="1"/>
+    <x:pivotField name="Quality" dataField="1"/>
     <x:pivotField name="Month" axis="axisCol" showAll="0" defaultSubtotal="0">
       <x:items count="3">
         <x:item x="0"/>
@@ -506,7 +506,7 @@
         <x:item x="2"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="BakeDate" defaultSubtotal="0"/>
+    <x:pivotField name="BakeDate"/>
   </x:pivotFields>
   <x:rowFields count="1">
     <x:field x="0"/>
@@ -576,9 +576,9 @@
         <x:item x="4"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="Code" defaultSubtotal="0"/>
-    <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Quality" dataField="1" defaultSubtotal="0"/>
+    <x:pivotField name="Code"/>
+    <x:pivotField name="NumberOfOrders" dataField="1"/>
+    <x:pivotField name="Quality" dataField="1"/>
     <x:pivotField name="Month" axis="axisRow" showAll="0" defaultSubtotal="0">
       <x:items count="3">
         <x:item x="0"/>
@@ -586,7 +586,7 @@
         <x:item x="2"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="BakeDate" defaultSubtotal="0"/>
+    <x:pivotField name="BakeDate"/>
   </x:pivotFields>
   <x:rowFields count="2">
     <x:field x="0"/>
@@ -661,9 +661,9 @@
         <x:item sd="0" x="4"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="Code" defaultSubtotal="0"/>
-    <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Quality" dataField="1" defaultSubtotal="0"/>
+    <x:pivotField name="Code"/>
+    <x:pivotField name="NumberOfOrders" dataField="1"/>
+    <x:pivotField name="Quality" dataField="1"/>
     <x:pivotField name="Month" axis="axisRow" allDrilled="1" showAll="0" defaultSubtotal="0">
       <x:items count="3">
         <x:item sd="0" x="0"/>
@@ -671,7 +671,7 @@
         <x:item sd="0" x="2"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="BakeDate" defaultSubtotal="0"/>
+    <x:pivotField name="BakeDate"/>
   </x:pivotFields>
   <x:rowFields count="2">
     <x:field x="0"/>
@@ -746,9 +746,9 @@
         <x:item x="4"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="Code" defaultSubtotal="0"/>
-    <x:pivotField name="NumberOfOrders" defaultSubtotal="0"/>
-    <x:pivotField name="Quality" defaultSubtotal="0"/>
+    <x:pivotField name="Code"/>
+    <x:pivotField name="NumberOfOrders"/>
+    <x:pivotField name="Quality"/>
     <x:pivotField name="Month" axis="axisRow" showAll="0" defaultSubtotal="0">
       <x:items count="3">
         <x:item x="0"/>
@@ -756,7 +756,7 @@
         <x:item x="2"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="BakeDate" defaultSubtotal="0"/>
+    <x:pivotField name="BakeDate"/>
   </x:pivotFields>
   <x:rowFields count="2">
     <x:field x="0"/>
@@ -824,9 +824,9 @@
         <x:item x="4"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="Code" defaultSubtotal="0"/>
-    <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Quality" dataField="1" defaultSubtotal="0"/>
+    <x:pivotField name="Code"/>
+    <x:pivotField name="NumberOfOrders" dataField="1"/>
+    <x:pivotField name="Quality" dataField="1"/>
     <x:pivotField name="Month" axis="axisCol" showAll="0" defaultSubtotal="0">
       <x:items count="3">
         <x:item x="0"/>
@@ -834,7 +834,7 @@
         <x:item x="2"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="BakeDate" defaultSubtotal="0"/>
+    <x:pivotField name="BakeDate"/>
   </x:pivotFields>
   <x:rowFields count="1">
     <x:field x="-2"/>
@@ -901,8 +901,8 @@
         <x:item x="4"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="Code" defaultSubtotal="0"/>
-    <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
+    <x:pivotField name="Code"/>
+    <x:pivotField name="NumberOfOrders" dataField="1"/>
     <x:pivotField name="Quality" axis="axisPage" showAll="0" defaultSubtotal="0">
       <x:items count="16">
         <x:item x="0"/>
@@ -1002,9 +1002,9 @@
         <x:item x="4"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="Code" defaultSubtotal="0"/>
-    <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Quality" dataField="1" defaultSubtotal="0"/>
+    <x:pivotField name="Code"/>
+    <x:pivotField name="NumberOfOrders" dataField="1"/>
+    <x:pivotField name="Quality" dataField="1"/>
     <x:pivotField name="Month" axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
       <x:items count="3">
         <x:item x="0"/>
@@ -1012,7 +1012,7 @@
         <x:item x="2"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="BakeDate" defaultSubtotal="0"/>
+    <x:pivotField name="BakeDate"/>
   </x:pivotFields>
   <x:rowFields count="2">
     <x:field x="0"/>

--- a/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
@@ -1383,12 +1383,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="11.025425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="10.335425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="20.595425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="12.155425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.685425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="14.055425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="11.355425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="10.625425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="21.385425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.525425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="12.035425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="14.525425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
@@ -1383,12 +1383,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="11.355425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="10.625425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="21.385425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="12.525425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="12.035425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="14.525425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="10.891116" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="10.215301" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="20.258449" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.988458" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.530743" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="13.857462" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
@@ -1383,12 +1383,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.625425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="8.925425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="19.395425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.685425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.355425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.735425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.665425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.005425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="19.485425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.705425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.445425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.805425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
@@ -1415,13 +1415,13 @@
       <x:c r="A2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="n">
+      <x:c r="B2" s="0">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="0">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="n">
+      <x:c r="D2" s="0">
         <x:v>60.2</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
@@ -1435,13 +1435,13 @@
       <x:c r="A3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="n">
+      <x:c r="B3" s="0">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="C3" s="0">
         <x:v>250</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="n">
+      <x:c r="D3" s="0">
         <x:v>50.42</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
@@ -1455,13 +1455,13 @@
       <x:c r="A4" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="n">
+      <x:c r="B4" s="0">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="n">
+      <x:c r="C4" s="0">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="n">
+      <x:c r="D4" s="0">
         <x:v>22.12</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
@@ -1475,13 +1475,13 @@
       <x:c r="A5" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="n">
+      <x:c r="B5" s="0">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="n">
+      <x:c r="C5" s="0">
         <x:v>250</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="n">
+      <x:c r="D5" s="0">
         <x:v>89.99</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
@@ -1495,13 +1495,13 @@
       <x:c r="A6" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="n">
+      <x:c r="B6" s="0">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="n">
+      <x:c r="C6" s="0">
         <x:v>225</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="n">
+      <x:c r="D6" s="0">
         <x:v>70</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
@@ -1515,13 +1515,13 @@
       <x:c r="A7" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="n">
+      <x:c r="B7" s="0">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="n">
+      <x:c r="C7" s="0">
         <x:v>210</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="n">
+      <x:c r="D7" s="0">
         <x:v>75.33</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
@@ -1535,13 +1535,13 @@
       <x:c r="A8" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="n">
+      <x:c r="B8" s="0">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="n">
+      <x:c r="C8" s="0">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="n">
+      <x:c r="D8" s="0">
         <x:v>10.24</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
@@ -1555,13 +1555,13 @@
       <x:c r="A9" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="n">
+      <x:c r="B9" s="0">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="n">
+      <x:c r="C9" s="0">
         <x:v>184</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="n">
+      <x:c r="D9" s="0">
         <x:v>33.33</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
@@ -1575,13 +1575,13 @@
       <x:c r="A10" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="n">
+      <x:c r="B10" s="0">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="n">
+      <x:c r="C10" s="0">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="n">
+      <x:c r="D10" s="0">
         <x:v>25</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
@@ -1595,13 +1595,13 @@
       <x:c r="A11" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="n">
+      <x:c r="B11" s="0">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="n">
+      <x:c r="C11" s="0">
         <x:v>394</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="n">
+      <x:c r="D11" s="0">
         <x:v>-20.24</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
@@ -1615,13 +1615,13 @@
       <x:c r="A12" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="n">
+      <x:c r="B12" s="0">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="n">
+      <x:c r="C12" s="0">
         <x:v>190</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="n">
+      <x:c r="D12" s="0">
         <x:v>60</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
@@ -1635,13 +1635,13 @@
       <x:c r="A13" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="n">
+      <x:c r="B13" s="0">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="n">
+      <x:c r="C13" s="0">
         <x:v>221</x:v>
       </x:c>
-      <x:c r="D13" s="0" t="n">
+      <x:c r="D13" s="0">
         <x:v>24.76</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
@@ -1655,13 +1655,13 @@
       <x:c r="A14" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="n">
+      <x:c r="B14" s="0">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="n">
+      <x:c r="C14" s="0">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="D14" s="0" t="n">
+      <x:c r="D14" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
@@ -1675,13 +1675,13 @@
       <x:c r="A15" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="n">
+      <x:c r="B15" s="0">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="n">
+      <x:c r="C15" s="0">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="D15" s="0" t="n">
+      <x:c r="D15" s="0">
         <x:v>5.19</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
@@ -1695,13 +1695,13 @@
       <x:c r="A16" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="n">
+      <x:c r="B16" s="0">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="n">
+      <x:c r="C16" s="0">
         <x:v>243</x:v>
       </x:c>
-      <x:c r="D16" s="0" t="n">
+      <x:c r="D16" s="0">
         <x:v>44.2</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
@@ -1715,10 +1715,10 @@
       <x:c r="A17" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="n">
+      <x:c r="C17" s="0">
         <x:v>255</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="n">
+      <x:c r="D17" s="0">
         <x:v>18.4</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -92,7 +92,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="0%"/>
+    <x:numFmt numFmtId="164" formatCode="0%"/>
   </x:numFmts>
   <x:fonts count="1">
     <x:font>
@@ -220,7 +220,7 @@
     </x:i>
   </x:colItems>
   <x:dataFields count="1">
-    <x:dataField name="NumberOfOrdersPercentageOfBearclaw" fld="2" subtotal="sum" showDataAs="percent" baseField="0" baseItem="2" numFmtId="165"/>
+    <x:dataField name="NumberOfOrdersPercentageOfBearclaw" fld="2" subtotal="sum" showDataAs="percent" baseField="0" baseItem="2" numFmtId="164"/>
   </x:dataFields>
   <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
   <x:extLst>
@@ -471,7 +471,7 @@
     </x:i>
   </x:colItems>
   <x:dataFields count="2">
-    <x:dataField name="NumberOfOrdersPercentageOfBearclaw" fld="2" subtotal="sum" showDataAs="percent" baseField="0" baseItem="2" numFmtId="165"/>
+    <x:dataField name="NumberOfOrdersPercentageOfBearclaw" fld="2" subtotal="sum" showDataAs="percent" baseField="0" baseItem="2" numFmtId="164"/>
     <x:dataField name="Sum of Quality" fld="3" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="4"/>
   </x:dataFields>
   <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
@@ -550,7 +550,7 @@
     </x:i>
   </x:colItems>
   <x:dataFields count="3">
-    <x:dataField name="NumberOfOrdersPercentageOfBearclaw" fld="2" subtotal="sum" showDataAs="percent" baseField="0" baseItem="2" numFmtId="165"/>
+    <x:dataField name="NumberOfOrdersPercentageOfBearclaw" fld="2" subtotal="sum" showDataAs="percent" baseField="0" baseItem="2" numFmtId="164"/>
     <x:dataField name="Sum of Quality" fld="3" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="4"/>
     <x:dataField name="Sum of NumberOfOrders" fld="2" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
   </x:dataFields>
@@ -876,7 +876,7 @@
     </x:i>
   </x:colItems>
   <x:dataFields count="2">
-    <x:dataField name="NumberOfOrdersPercentageOfBearclaw" fld="2" subtotal="sum" showDataAs="percent" baseField="0" baseItem="2" numFmtId="165"/>
+    <x:dataField name="NumberOfOrdersPercentageOfBearclaw" fld="2" subtotal="sum" showDataAs="percent" baseField="0" baseItem="2" numFmtId="164"/>
     <x:dataField name="Sum of Quality" fld="3" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="4"/>
   </x:dataFields>
   <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>

--- a/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
@@ -1951,7 +1951,7 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
+      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
     </x:cacheField>
     <x:cacheField name="NumberOfOrders">
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
@@ -1960,14 +1960,15 @@
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
     </x:cacheField>
     <x:cacheField name="Month">
-      <x:sharedItems count="3">
+      <x:sharedItems containsBlank="1" count="3">
         <x:s v="Apr"/>
         <x:s v="May"/>
         <x:s v="Jun"/>
+        <x:m/>
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15"/>
+      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15"/>
     </x:cacheField>
   </x:cacheFields>
 </x:pivotCacheDefinition>
@@ -1989,12 +1990,13 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5">
+      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5">
         <x:n v="101"/>
         <x:n v="102"/>
         <x:n v="103"/>
         <x:n v="104"/>
         <x:n v="105"/>
+        <x:m/>
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="NumberOfOrders">
@@ -2004,14 +2006,15 @@
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
     </x:cacheField>
     <x:cacheField name="Month">
-      <x:sharedItems count="3">
+      <x:sharedItems containsBlank="1" count="3">
         <x:s v="Apr"/>
         <x:s v="May"/>
         <x:s v="Jun"/>
+        <x:m/>
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15">
+      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15">
         <x:d v="2016-04-21T00:00:00"/>
         <x:d v="2016-05-03T00:00:00"/>
         <x:d v="2016-06-24T00:00:00"/>
@@ -2027,6 +2030,7 @@
         <x:d v="2017-04-22T00:00:00"/>
         <x:d v="2017-05-03T00:00:00"/>
         <x:d v="2017-06-14T00:00:00"/>
+        <x:m/>
       </x:sharedItems>
     </x:cacheField>
   </x:cacheFields>
@@ -2049,7 +2053,7 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
+      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
     </x:cacheField>
     <x:cacheField name="NumberOfOrders">
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
@@ -2058,14 +2062,15 @@
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
     </x:cacheField>
     <x:cacheField name="Month">
-      <x:sharedItems count="3">
+      <x:sharedItems containsBlank="1" count="3">
         <x:s v="Apr"/>
         <x:s v="May"/>
         <x:s v="Jun"/>
+        <x:m/>
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15"/>
+      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15"/>
     </x:cacheField>
   </x:cacheFields>
 </x:pivotCacheDefinition>
@@ -2087,7 +2092,7 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
+      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
     </x:cacheField>
     <x:cacheField name="NumberOfOrders">
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
@@ -2096,14 +2101,15 @@
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
     </x:cacheField>
     <x:cacheField name="Month">
-      <x:sharedItems count="3">
+      <x:sharedItems containsBlank="1" count="3">
         <x:s v="Apr"/>
         <x:s v="May"/>
         <x:s v="Jun"/>
+        <x:m/>
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15"/>
+      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15"/>
     </x:cacheField>
   </x:cacheFields>
 </x:pivotCacheDefinition>
@@ -2125,7 +2131,7 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
+      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
     </x:cacheField>
     <x:cacheField name="NumberOfOrders">
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
@@ -2134,14 +2140,15 @@
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
     </x:cacheField>
     <x:cacheField name="Month">
-      <x:sharedItems count="3">
+      <x:sharedItems containsBlank="1" count="3">
         <x:s v="Apr"/>
         <x:s v="May"/>
         <x:s v="Jun"/>
+        <x:m/>
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15"/>
+      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15"/>
     </x:cacheField>
   </x:cacheFields>
 </x:pivotCacheDefinition>
@@ -2163,7 +2170,7 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
+      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
     </x:cacheField>
     <x:cacheField name="NumberOfOrders">
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
@@ -2172,14 +2179,15 @@
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
     </x:cacheField>
     <x:cacheField name="Month">
-      <x:sharedItems count="3">
+      <x:sharedItems containsBlank="1" count="3">
         <x:s v="Apr"/>
         <x:s v="May"/>
         <x:s v="Jun"/>
+        <x:m/>
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15"/>
+      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15"/>
     </x:cacheField>
   </x:cacheFields>
 </x:pivotCacheDefinition>
@@ -2201,7 +2209,7 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
+      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
     </x:cacheField>
     <x:cacheField name="NumberOfOrders">
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
@@ -2210,14 +2218,15 @@
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
     </x:cacheField>
     <x:cacheField name="Month">
-      <x:sharedItems count="3">
+      <x:sharedItems containsBlank="1" count="3">
         <x:s v="Apr"/>
         <x:s v="May"/>
         <x:s v="Jun"/>
+        <x:m/>
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15"/>
+      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15"/>
     </x:cacheField>
   </x:cacheFields>
 </x:pivotCacheDefinition>
@@ -2239,7 +2248,7 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
+      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
     </x:cacheField>
     <x:cacheField name="NumberOfOrders">
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
@@ -2248,14 +2257,15 @@
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
     </x:cacheField>
     <x:cacheField name="Month">
-      <x:sharedItems count="3">
+      <x:sharedItems containsBlank="1" count="3">
         <x:s v="Apr"/>
         <x:s v="May"/>
         <x:s v="Jun"/>
+        <x:m/>
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15"/>
+      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15"/>
     </x:cacheField>
   </x:cacheFields>
 </x:pivotCacheDefinition>
@@ -2277,7 +2287,7 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
+      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
     </x:cacheField>
     <x:cacheField name="NumberOfOrders">
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
@@ -2303,14 +2313,15 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Month">
-      <x:sharedItems count="3">
+      <x:sharedItems containsBlank="1" count="3">
         <x:s v="Apr"/>
         <x:s v="May"/>
         <x:s v="Jun"/>
+        <x:m/>
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15">
+      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15">
         <x:d v="2016-04-21T00:00:00"/>
         <x:d v="2016-05-03T00:00:00"/>
         <x:d v="2016-06-24T00:00:00"/>
@@ -2326,6 +2337,7 @@
         <x:d v="2017-04-22T00:00:00"/>
         <x:d v="2017-05-03T00:00:00"/>
         <x:d v="2017-06-14T00:00:00"/>
+        <x:m/>
       </x:sharedItems>
     </x:cacheField>
   </x:cacheFields>
@@ -2348,7 +2360,7 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
+      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
     </x:cacheField>
     <x:cacheField name="NumberOfOrders">
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
@@ -2357,14 +2369,15 @@
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
     </x:cacheField>
     <x:cacheField name="Month">
-      <x:sharedItems count="3">
+      <x:sharedItems containsBlank="1" count="3">
         <x:s v="Apr"/>
         <x:s v="May"/>
         <x:s v="Jun"/>
+        <x:m/>
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15"/>
+      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15"/>
     </x:cacheField>
   </x:cacheFields>
 </x:pivotCacheDefinition>

--- a/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
@@ -1383,12 +1383,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.665425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.005425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="19.485425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.705425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.445425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.805425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.996339" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="18.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.710625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.567768" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
@@ -21,16 +21,8 @@
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
   <x:pivotCaches>
-    <x:pivotCache cacheId="0" r:id="rId16"/>
-    <x:pivotCache cacheId="1" r:id="rId19"/>
-    <x:pivotCache cacheId="2" r:id="rId22"/>
-    <x:pivotCache cacheId="3" r:id="rId25"/>
-    <x:pivotCache cacheId="4" r:id="rId28"/>
-    <x:pivotCache cacheId="5" r:id="rId31"/>
-    <x:pivotCache cacheId="6" r:id="rId34"/>
-    <x:pivotCache cacheId="7" r:id="rId37"/>
-    <x:pivotCache cacheId="8" r:id="rId40"/>
-    <x:pivotCache cacheId="9" r:id="rId43"/>
+    <x:pivotCache cacheId="0" r:id="rId15"/>
+    <x:pivotCache cacheId="1" r:id="rId16"/>
   </x:pivotCaches>
 </x:workbook>
 </file>
@@ -171,10 +163,11 @@
     <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
     <x:pivotField name="Quality" defaultSubtotal="0"/>
     <x:pivotField name="Month" axis="axisCol" showAll="0" defaultSubtotal="0">
-      <x:items count="3">
+      <x:items count="4">
         <x:item x="0"/>
         <x:item x="1"/>
         <x:item x="2"/>
+        <x:item x="3"/>
       </x:items>
     </x:pivotField>
     <x:pivotField name="BakeDate" defaultSubtotal="0"/>
@@ -205,7 +198,7 @@
   <x:colFields count="1">
     <x:field x="4"/>
   </x:colFields>
-  <x:colItems count="4">
+  <x:colItems count="5">
     <x:i>
       <x:x v="0"/>
     </x:i>
@@ -214,6 +207,9 @@
     </x:i>
     <x:i>
       <x:x v="2"/>
+    </x:i>
+    <x:i>
+      <x:x v="3"/>
     </x:i>
     <x:i t="grand">
       <x:x/>
@@ -232,7 +228,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtInteger" cacheId="9" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtInteger" cacheId="1" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -245,25 +241,27 @@
       </x:items>
     </x:pivotField>
     <x:pivotField name="Code" axis="axisRow" showAll="0" defaultSubtotal="0">
-      <x:items count="5">
+      <x:items count="6">
         <x:item x="0"/>
         <x:item x="1"/>
         <x:item x="2"/>
         <x:item x="3"/>
         <x:item x="4"/>
+        <x:item x="5"/>
       </x:items>
     </x:pivotField>
     <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
     <x:pivotField name="Quality" dataField="1" defaultSubtotal="0"/>
     <x:pivotField name="Month" axis="axisCol" showAll="0" defaultSubtotal="0">
-      <x:items count="3">
+      <x:items count="4">
         <x:item x="0"/>
         <x:item x="1"/>
         <x:item x="2"/>
+        <x:item x="3"/>
       </x:items>
     </x:pivotField>
     <x:pivotField name="BakeDate" axis="axisRow" showAll="0" defaultSubtotal="0">
-      <x:items count="15">
+      <x:items count="16">
         <x:item x="0"/>
         <x:item x="1"/>
         <x:item x="2"/>
@@ -279,6 +277,7 @@
         <x:item x="12"/>
         <x:item x="13"/>
         <x:item x="14"/>
+        <x:item x="15"/>
       </x:items>
     </x:pivotField>
   </x:pivotFields>
@@ -287,7 +286,7 @@
     <x:field x="1"/>
     <x:field x="5"/>
   </x:rowFields>
-  <x:rowItems count="28">
+  <x:rowItems count="30">
     <x:i>
       <x:x v="0"/>
     </x:i>
@@ -321,6 +320,9 @@
     <x:i>
       <x:x v="4"/>
     </x:i>
+    <x:i>
+      <x:x v="5"/>
+    </x:i>
     <x:i t="grand">
       <x:x/>
     </x:i>
@@ -368,6 +370,9 @@
     </x:i>
     <x:i>
       <x:x v="14"/>
+    </x:i>
+    <x:i>
+      <x:x v="15"/>
     </x:i>
     <x:i t="grand">
       <x:x/>
@@ -377,7 +382,7 @@
     <x:field x="4"/>
     <x:field x="-2"/>
   </x:colFields>
-  <x:colItems count="4">
+  <x:colItems count="5">
     <x:i>
       <x:x v="0"/>
     </x:i>
@@ -386,6 +391,9 @@
     </x:i>
     <x:i>
       <x:x v="2"/>
+    </x:i>
+    <x:i>
+      <x:x v="3"/>
     </x:i>
     <x:i t="grand">
       <x:x/>
@@ -405,7 +413,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="1" dataOnRows="1" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="0" dataOnRows="1" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -421,10 +429,11 @@
     <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
     <x:pivotField name="Quality" dataField="1" defaultSubtotal="0"/>
     <x:pivotField name="Month" axis="axisCol" showAll="0" defaultSubtotal="0">
-      <x:items count="3">
+      <x:items count="4">
         <x:item x="0"/>
         <x:item x="1"/>
         <x:item x="2"/>
+        <x:item x="3"/>
       </x:items>
     </x:pivotField>
     <x:pivotField name="BakeDate" defaultSubtotal="0"/>
@@ -456,7 +465,7 @@
   <x:colFields count="1">
     <x:field x="4"/>
   </x:colFields>
-  <x:colItems count="4">
+  <x:colItems count="5">
     <x:i>
       <x:x v="0"/>
     </x:i>
@@ -465,6 +474,9 @@
     </x:i>
     <x:i>
       <x:x v="2"/>
+    </x:i>
+    <x:i>
+      <x:x v="3"/>
     </x:i>
     <x:i t="grand">
       <x:x/>
@@ -484,7 +496,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="2" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -500,10 +512,11 @@
     <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
     <x:pivotField name="Quality" dataField="1" defaultSubtotal="0"/>
     <x:pivotField name="Month" axis="axisCol" showAll="0" defaultSubtotal="0">
-      <x:items count="3">
+      <x:items count="4">
         <x:item x="0"/>
         <x:item x="1"/>
         <x:item x="2"/>
+        <x:item x="3"/>
       </x:items>
     </x:pivotField>
     <x:pivotField name="BakeDate" defaultSubtotal="0"/>
@@ -535,7 +548,7 @@
     <x:field x="4"/>
     <x:field x="-2"/>
   </x:colFields>
-  <x:colItems count="4">
+  <x:colItems count="5">
     <x:i>
       <x:x v="0"/>
     </x:i>
@@ -544,6 +557,9 @@
     </x:i>
     <x:i>
       <x:x v="2"/>
+    </x:i>
+    <x:i>
+      <x:x v="3"/>
     </x:i>
     <x:i t="grand">
       <x:x/>
@@ -564,7 +580,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtNoColumnLabels" cacheId="3" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1" rowHeaderCaption="Pastry name">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtNoColumnLabels" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1" rowHeaderCaption="Pastry name">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -580,10 +596,11 @@
     <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
     <x:pivotField name="Quality" dataField="1" defaultSubtotal="0"/>
     <x:pivotField name="Month" axis="axisRow" showAll="0" defaultSubtotal="0">
-      <x:items count="3">
+      <x:items count="4">
         <x:item x="0"/>
         <x:item x="1"/>
         <x:item x="2"/>
+        <x:item x="3"/>
       </x:items>
     </x:pivotField>
     <x:pivotField name="BakeDate" defaultSubtotal="0"/>
@@ -592,7 +609,7 @@
     <x:field x="0"/>
     <x:field x="4"/>
   </x:rowFields>
-  <x:rowItems count="10">
+  <x:rowItems count="11">
     <x:i>
       <x:x v="0"/>
     </x:i>
@@ -619,6 +636,9 @@
     </x:i>
     <x:i>
       <x:x v="2"/>
+    </x:i>
+    <x:i>
+      <x:x v="3"/>
     </x:i>
     <x:i t="grand">
       <x:x/>
@@ -649,7 +669,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtCollapsedFields" cacheId="4" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtCollapsedFields" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisRow" allDrilled="1" showAll="0" defaultSubtotal="0">
@@ -665,10 +685,11 @@
     <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
     <x:pivotField name="Quality" dataField="1" defaultSubtotal="0"/>
     <x:pivotField name="Month" axis="axisRow" allDrilled="1" showAll="0" defaultSubtotal="0">
-      <x:items count="3">
+      <x:items count="4">
         <x:item sd="0" x="0"/>
         <x:item sd="0" x="1"/>
         <x:item sd="0" x="2"/>
+        <x:item sd="0" x="3"/>
       </x:items>
     </x:pivotField>
     <x:pivotField name="BakeDate" defaultSubtotal="0"/>
@@ -677,7 +698,7 @@
     <x:field x="0"/>
     <x:field x="4"/>
   </x:rowFields>
-  <x:rowItems count="10">
+  <x:rowItems count="11">
     <x:i>
       <x:x v="0"/>
     </x:i>
@@ -704,6 +725,9 @@
     </x:i>
     <x:i>
       <x:x v="2"/>
+    </x:i>
+    <x:i>
+      <x:x v="3"/>
     </x:i>
     <x:i t="grand">
       <x:x/>
@@ -734,7 +758,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtFieldAsValueAndLabel" cacheId="5" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtFieldAsValueAndLabel" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisRow" dataField="1" showAll="0" defaultSubtotal="0">
@@ -750,10 +774,11 @@
     <x:pivotField name="NumberOfOrders" defaultSubtotal="0"/>
     <x:pivotField name="Quality" defaultSubtotal="0"/>
     <x:pivotField name="Month" axis="axisRow" showAll="0" defaultSubtotal="0">
-      <x:items count="3">
+      <x:items count="4">
         <x:item x="0"/>
         <x:item x="1"/>
         <x:item x="2"/>
+        <x:item x="3"/>
       </x:items>
     </x:pivotField>
     <x:pivotField name="BakeDate" defaultSubtotal="0"/>
@@ -762,7 +787,7 @@
     <x:field x="0"/>
     <x:field x="4"/>
   </x:rowFields>
-  <x:rowItems count="10">
+  <x:rowItems count="11">
     <x:i>
       <x:x v="0"/>
     </x:i>
@@ -789,6 +814,9 @@
     </x:i>
     <x:i>
       <x:x v="2"/>
+    </x:i>
+    <x:i>
+      <x:x v="3"/>
     </x:i>
     <x:i t="grand">
       <x:x/>
@@ -812,7 +840,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtHidesubTotals" cacheId="6" dataOnRows="1" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1" colHeaderCaption="Measures">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtHidesubTotals" cacheId="0" dataOnRows="1" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1" colHeaderCaption="Measures">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisCol" showAll="0" defaultSubtotal="0">
@@ -828,10 +856,11 @@
     <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
     <x:pivotField name="Quality" dataField="1" defaultSubtotal="0"/>
     <x:pivotField name="Month" axis="axisCol" showAll="0" defaultSubtotal="0">
-      <x:items count="3">
+      <x:items count="4">
         <x:item x="0"/>
         <x:item x="1"/>
         <x:item x="2"/>
+        <x:item x="3"/>
       </x:items>
     </x:pivotField>
     <x:pivotField name="BakeDate" defaultSubtotal="0"/>
@@ -843,7 +872,7 @@
     <x:field x="4"/>
     <x:field x="0"/>
   </x:colFields>
-  <x:colItems count="10">
+  <x:colItems count="11">
     <x:i>
       <x:x v="0"/>
     </x:i>
@@ -870,6 +899,9 @@
     </x:i>
     <x:i>
       <x:x v="2"/>
+    </x:i>
+    <x:i>
+      <x:x v="3"/>
     </x:i>
     <x:i t="grand">
       <x:x/>
@@ -889,7 +921,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtFilter" cacheId="7" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtFilter" cacheId="1" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
   <x:location ref="A5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
@@ -924,14 +956,15 @@
       </x:items>
     </x:pivotField>
     <x:pivotField name="Month" axis="axisRow" showAll="0" defaultSubtotal="0">
-      <x:items count="3">
+      <x:items count="4">
         <x:item x="0"/>
         <x:item x="1"/>
         <x:item x="2"/>
+        <x:item x="3"/>
       </x:items>
     </x:pivotField>
     <x:pivotField name="BakeDate" axis="axisPage" showAll="0" defaultSubtotal="0">
-      <x:items count="15">
+      <x:items count="16">
         <x:item x="0"/>
         <x:item x="1"/>
         <x:item x="2"/>
@@ -947,13 +980,14 @@
         <x:item x="12"/>
         <x:item x="13"/>
         <x:item x="14"/>
+        <x:item x="15"/>
       </x:items>
     </x:pivotField>
   </x:pivotFields>
   <x:rowFields count="1">
     <x:field x="4"/>
   </x:rowFields>
-  <x:rowItems count="4">
+  <x:rowItems count="5">
     <x:i>
       <x:x v="0"/>
     </x:i>
@@ -962,6 +996,9 @@
     </x:i>
     <x:i>
       <x:x v="2"/>
+    </x:i>
+    <x:i>
+      <x:x v="3"/>
     </x:i>
     <x:i t="grand">
       <x:x/>
@@ -990,7 +1027,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtSort" cacheId="8" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1" rowHeaderCaption="Pastry name">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtSort" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1" rowHeaderCaption="Pastry name">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -1006,10 +1043,11 @@
     <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
     <x:pivotField name="Quality" dataField="1" defaultSubtotal="0"/>
     <x:pivotField name="Month" axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <x:items count="3">
+      <x:items count="4">
         <x:item x="0"/>
         <x:item x="1"/>
         <x:item x="2"/>
+        <x:item x="3"/>
       </x:items>
     </x:pivotField>
     <x:pivotField name="BakeDate" defaultSubtotal="0"/>
@@ -1018,7 +1056,7 @@
     <x:field x="0"/>
     <x:field x="4"/>
   </x:rowFields>
-  <x:rowItems count="10">
+  <x:rowItems count="11">
     <x:i>
       <x:x v="0"/>
     </x:i>
@@ -1045,6 +1083,9 @@
     </x:i>
     <x:i>
       <x:x v="2"/>
+    </x:i>
+    <x:i>
+      <x:x v="3"/>
     </x:i>
     <x:i t="grand">
       <x:x/>
@@ -1728,7 +1769,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId15"/>
+    <x:tablePart r:id="rId17"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -1951,46 +1992,7 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
-    </x:cacheField>
-    <x:cacheField name="NumberOfOrders">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
-    </x:cacheField>
-    <x:cacheField name="Quality">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
-    </x:cacheField>
-    <x:cacheField name="Month">
-      <x:sharedItems containsBlank="1" count="3">
-        <x:s v="Apr"/>
-        <x:s v="May"/>
-        <x:s v="Jun"/>
-        <x:m/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15"/>
-    </x:cacheField>
-  </x:cacheFields>
-</x:pivotCacheDefinition>
-</file>
-
-<file path=pivotCache/pivotCacheDefinition10.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3">
-  <x:cacheSource type="worksheet">
-    <x:worksheetSource name="PastrySalesData"/>
-  </x:cacheSource>
-  <x:cacheFields>
-    <x:cacheField name="Name">
-      <x:sharedItems count="5">
-        <x:s v="Croissant"/>
-        <x:s v="Doughnut"/>
-        <x:s v="Bearclaw"/>
-        <x:s v="Danish"/>
-        <x:s v="Scone"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5">
+      <x:sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="6">
         <x:n v="101"/>
         <x:n v="102"/>
         <x:n v="103"/>
@@ -2000,297 +2002,22 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="NumberOfOrders">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
-    </x:cacheField>
-    <x:cacheField name="Quality">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
-    </x:cacheField>
-    <x:cacheField name="Month">
-      <x:sharedItems containsBlank="1" count="3">
-        <x:s v="Apr"/>
-        <x:s v="May"/>
-        <x:s v="Jun"/>
-        <x:m/>
+      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14">
+        <x:n v="150"/>
+        <x:n v="250"/>
+        <x:n v="134"/>
+        <x:n v="225"/>
+        <x:n v="210"/>
+        <x:n v="184"/>
+        <x:n v="124"/>
+        <x:n v="394"/>
+        <x:n v="190"/>
+        <x:n v="221"/>
+        <x:n v="135"/>
+        <x:n v="122"/>
+        <x:n v="243"/>
+        <x:n v="255"/>
       </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15">
-        <x:d v="2016-04-21T00:00:00"/>
-        <x:d v="2016-05-03T00:00:00"/>
-        <x:d v="2016-06-24T00:00:00"/>
-        <x:d v="2017-04-23T00:00:00"/>
-        <x:d v="2016-05-24T00:00:00"/>
-        <x:d v="2016-06-02T00:00:00"/>
-        <x:d v="2016-04-27T00:00:00"/>
-        <x:d v="2016-05-20T00:00:00"/>
-        <x:d v="2017-06-05T00:00:00"/>
-        <x:d v="2017-04-24T00:00:00"/>
-        <x:d v="2017-05-08T00:00:00"/>
-        <x:d v="2016-06-21T00:00:00"/>
-        <x:d v="2017-04-22T00:00:00"/>
-        <x:d v="2017-05-03T00:00:00"/>
-        <x:d v="2017-06-14T00:00:00"/>
-        <x:m/>
-      </x:sharedItems>
-    </x:cacheField>
-  </x:cacheFields>
-</x:pivotCacheDefinition>
-</file>
-
-<file path=pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3">
-  <x:cacheSource type="worksheet">
-    <x:worksheetSource ref="A1:F17" sheet="PastrySalesData"/>
-  </x:cacheSource>
-  <x:cacheFields>
-    <x:cacheField name="Name">
-      <x:sharedItems count="5">
-        <x:s v="Croissant"/>
-        <x:s v="Doughnut"/>
-        <x:s v="Bearclaw"/>
-        <x:s v="Danish"/>
-        <x:s v="Scone"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
-    </x:cacheField>
-    <x:cacheField name="NumberOfOrders">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
-    </x:cacheField>
-    <x:cacheField name="Quality">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
-    </x:cacheField>
-    <x:cacheField name="Month">
-      <x:sharedItems containsBlank="1" count="3">
-        <x:s v="Apr"/>
-        <x:s v="May"/>
-        <x:s v="Jun"/>
-        <x:m/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15"/>
-    </x:cacheField>
-  </x:cacheFields>
-</x:pivotCacheDefinition>
-</file>
-
-<file path=pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3">
-  <x:cacheSource type="worksheet">
-    <x:worksheetSource ref="A1:F17" sheet="PastrySalesData"/>
-  </x:cacheSource>
-  <x:cacheFields>
-    <x:cacheField name="Name">
-      <x:sharedItems count="5">
-        <x:s v="Croissant"/>
-        <x:s v="Doughnut"/>
-        <x:s v="Bearclaw"/>
-        <x:s v="Danish"/>
-        <x:s v="Scone"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
-    </x:cacheField>
-    <x:cacheField name="NumberOfOrders">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
-    </x:cacheField>
-    <x:cacheField name="Quality">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
-    </x:cacheField>
-    <x:cacheField name="Month">
-      <x:sharedItems containsBlank="1" count="3">
-        <x:s v="Apr"/>
-        <x:s v="May"/>
-        <x:s v="Jun"/>
-        <x:m/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15"/>
-    </x:cacheField>
-  </x:cacheFields>
-</x:pivotCacheDefinition>
-</file>
-
-<file path=pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3">
-  <x:cacheSource type="worksheet">
-    <x:worksheetSource ref="A1:F17" sheet="PastrySalesData"/>
-  </x:cacheSource>
-  <x:cacheFields>
-    <x:cacheField name="Name">
-      <x:sharedItems count="5">
-        <x:s v="Croissant"/>
-        <x:s v="Doughnut"/>
-        <x:s v="Bearclaw"/>
-        <x:s v="Danish"/>
-        <x:s v="Scone"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
-    </x:cacheField>
-    <x:cacheField name="NumberOfOrders">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
-    </x:cacheField>
-    <x:cacheField name="Quality">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
-    </x:cacheField>
-    <x:cacheField name="Month">
-      <x:sharedItems containsBlank="1" count="3">
-        <x:s v="Apr"/>
-        <x:s v="May"/>
-        <x:s v="Jun"/>
-        <x:m/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15"/>
-    </x:cacheField>
-  </x:cacheFields>
-</x:pivotCacheDefinition>
-</file>
-
-<file path=pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3">
-  <x:cacheSource type="worksheet">
-    <x:worksheetSource ref="A1:F17" sheet="PastrySalesData"/>
-  </x:cacheSource>
-  <x:cacheFields>
-    <x:cacheField name="Name">
-      <x:sharedItems count="5">
-        <x:s v="Croissant"/>
-        <x:s v="Doughnut"/>
-        <x:s v="Bearclaw"/>
-        <x:s v="Danish"/>
-        <x:s v="Scone"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
-    </x:cacheField>
-    <x:cacheField name="NumberOfOrders">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
-    </x:cacheField>
-    <x:cacheField name="Quality">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
-    </x:cacheField>
-    <x:cacheField name="Month">
-      <x:sharedItems containsBlank="1" count="3">
-        <x:s v="Apr"/>
-        <x:s v="May"/>
-        <x:s v="Jun"/>
-        <x:m/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15"/>
-    </x:cacheField>
-  </x:cacheFields>
-</x:pivotCacheDefinition>
-</file>
-
-<file path=pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3">
-  <x:cacheSource type="worksheet">
-    <x:worksheetSource ref="A1:F17" sheet="PastrySalesData"/>
-  </x:cacheSource>
-  <x:cacheFields>
-    <x:cacheField name="Name">
-      <x:sharedItems count="5">
-        <x:s v="Croissant"/>
-        <x:s v="Doughnut"/>
-        <x:s v="Bearclaw"/>
-        <x:s v="Danish"/>
-        <x:s v="Scone"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
-    </x:cacheField>
-    <x:cacheField name="NumberOfOrders">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
-    </x:cacheField>
-    <x:cacheField name="Quality">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
-    </x:cacheField>
-    <x:cacheField name="Month">
-      <x:sharedItems containsBlank="1" count="3">
-        <x:s v="Apr"/>
-        <x:s v="May"/>
-        <x:s v="Jun"/>
-        <x:m/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15"/>
-    </x:cacheField>
-  </x:cacheFields>
-</x:pivotCacheDefinition>
-</file>
-
-<file path=pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3">
-  <x:cacheSource type="worksheet">
-    <x:worksheetSource ref="A1:F17" sheet="PastrySalesData"/>
-  </x:cacheSource>
-  <x:cacheFields>
-    <x:cacheField name="Name">
-      <x:sharedItems count="5">
-        <x:s v="Croissant"/>
-        <x:s v="Doughnut"/>
-        <x:s v="Bearclaw"/>
-        <x:s v="Danish"/>
-        <x:s v="Scone"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
-    </x:cacheField>
-    <x:cacheField name="NumberOfOrders">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
-    </x:cacheField>
-    <x:cacheField name="Quality">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
-    </x:cacheField>
-    <x:cacheField name="Month">
-      <x:sharedItems containsBlank="1" count="3">
-        <x:s v="Apr"/>
-        <x:s v="May"/>
-        <x:s v="Jun"/>
-        <x:m/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15"/>
-    </x:cacheField>
-  </x:cacheFields>
-</x:pivotCacheDefinition>
-</file>
-
-<file path=pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3">
-  <x:cacheSource type="worksheet">
-    <x:worksheetSource name="PastrySalesData"/>
-  </x:cacheSource>
-  <x:cacheFields>
-    <x:cacheField name="Name">
-      <x:sharedItems count="5">
-        <x:s v="Croissant"/>
-        <x:s v="Doughnut"/>
-        <x:s v="Bearclaw"/>
-        <x:s v="Danish"/>
-        <x:s v="Scone"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
-    </x:cacheField>
-    <x:cacheField name="NumberOfOrders">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
     </x:cacheField>
     <x:cacheField name="Quality">
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16">
@@ -2313,7 +2040,7 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Month">
-      <x:sharedItems containsBlank="1" count="3">
+      <x:sharedItems containsBlank="1" count="4">
         <x:s v="Apr"/>
         <x:s v="May"/>
         <x:s v="Jun"/>
@@ -2321,7 +2048,7 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15">
+      <x:sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="16">
         <x:d v="2016-04-21T00:00:00"/>
         <x:d v="2016-05-03T00:00:00"/>
         <x:d v="2016-06-24T00:00:00"/>
@@ -2344,10 +2071,10 @@
 </x:pivotCacheDefinition>
 </file>
 
-<file path=pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3">
   <x:cacheSource type="worksheet">
-    <x:worksheetSource ref="A1:F17" sheet="PastrySalesData"/>
+    <x:worksheetSource name="PastrySalesData"/>
   </x:cacheSource>
   <x:cacheFields>
     <x:cacheField name="Name">
@@ -2360,16 +2087,55 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
+      <x:sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="6">
+        <x:n v="101"/>
+        <x:n v="102"/>
+        <x:n v="103"/>
+        <x:n v="104"/>
+        <x:n v="105"/>
+        <x:m/>
+      </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="NumberOfOrders">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
+      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14">
+        <x:n v="150"/>
+        <x:n v="250"/>
+        <x:n v="134"/>
+        <x:n v="225"/>
+        <x:n v="210"/>
+        <x:n v="184"/>
+        <x:n v="124"/>
+        <x:n v="394"/>
+        <x:n v="190"/>
+        <x:n v="221"/>
+        <x:n v="135"/>
+        <x:n v="122"/>
+        <x:n v="243"/>
+        <x:n v="255"/>
+      </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Quality">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
+      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16">
+        <x:n v="60.2"/>
+        <x:n v="50.42"/>
+        <x:n v="22.12"/>
+        <x:n v="89.99"/>
+        <x:n v="70"/>
+        <x:n v="75.33"/>
+        <x:n v="10.24"/>
+        <x:n v="33.33"/>
+        <x:n v="25"/>
+        <x:n v="-20.24"/>
+        <x:n v="60"/>
+        <x:n v="24.76"/>
+        <x:n v="0"/>
+        <x:n v="5.19"/>
+        <x:n v="44.2"/>
+        <x:n v="18.4"/>
+      </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Month">
-      <x:sharedItems containsBlank="1" count="3">
+      <x:sharedItems containsBlank="1" count="4">
         <x:s v="Apr"/>
         <x:s v="May"/>
         <x:s v="Jun"/>
@@ -2377,7 +2143,24 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15"/>
+      <x:sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="16">
+        <x:d v="2016-04-21T00:00:00"/>
+        <x:d v="2016-05-03T00:00:00"/>
+        <x:d v="2016-06-24T00:00:00"/>
+        <x:d v="2017-04-23T00:00:00"/>
+        <x:d v="2016-05-24T00:00:00"/>
+        <x:d v="2016-06-02T00:00:00"/>
+        <x:d v="2016-04-27T00:00:00"/>
+        <x:d v="2016-05-20T00:00:00"/>
+        <x:d v="2017-06-05T00:00:00"/>
+        <x:d v="2017-04-24T00:00:00"/>
+        <x:d v="2017-05-08T00:00:00"/>
+        <x:d v="2016-06-21T00:00:00"/>
+        <x:d v="2017-04-22T00:00:00"/>
+        <x:d v="2017-05-03T00:00:00"/>
+        <x:d v="2017-06-14T00:00:00"/>
+        <x:m/>
+      </x:sharedItems>
     </x:cacheField>
   </x:cacheFields>
 </x:pivotCacheDefinition>
@@ -2387,38 +2170,6 @@
 <x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
-<file path=pivotCache/pivotCacheRecords10.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=pivotCache/pivotCacheRecords6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=pivotCache/pivotCacheRecords7.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=pivotCache/pivotCacheRecords8.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=pivotCache/pivotCacheRecords9.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
--- a/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
@@ -1779,7 +1779,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1798,7 +1798,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1817,73 +1817,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A1"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-  </x:cols>
-  <x:sheetData/>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:A1"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-  </x:cols>
-  <x:sheetData/>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:A1"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-  </x:cols>
-  <x:sheetData/>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1897,12 +1831,12 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1916,12 +1850,12 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1935,19 +1869,16 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-  </x:cols>
   <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1957,12 +1888,69 @@
 </x:worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>

--- a/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
@@ -1414,7 +1414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1775,7 +1775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1794,7 +1794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1813,7 +1813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1832,7 +1832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1851,7 +1851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1870,7 +1870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1889,7 +1889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1908,7 +1908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1927,7 +1927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1946,7 +1946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
@@ -6,17 +6,17 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="PastrySalesData" sheetId="2" r:id="rId2"/>
-    <x:sheet name="pvt1" sheetId="3" r:id="rId3"/>
-    <x:sheet name="pvt2" sheetId="4" r:id="rId4"/>
-    <x:sheet name="pvt3" sheetId="5" r:id="rId5"/>
-    <x:sheet name="pvtNoColumnLabels" sheetId="6" r:id="rId6"/>
-    <x:sheet name="pvtCollapsedFields" sheetId="7" r:id="rId7"/>
-    <x:sheet name="pvtFieldAsValueAndLabel" sheetId="8" r:id="rId8"/>
-    <x:sheet name="pvtHideSubTotals" sheetId="9" r:id="rId9"/>
-    <x:sheet name="pvtFilter" sheetId="10" r:id="rId10"/>
-    <x:sheet name="pvtSort" sheetId="11" r:id="rId11"/>
-    <x:sheet name="pvtInteger" sheetId="12" r:id="rId12"/>
+    <x:sheet name="PastrySalesData" sheetId="1" r:id="rId2"/>
+    <x:sheet name="pvt1" sheetId="2" r:id="rId3"/>
+    <x:sheet name="pvt2" sheetId="3" r:id="rId4"/>
+    <x:sheet name="pvt3" sheetId="4" r:id="rId5"/>
+    <x:sheet name="pvtNoColumnLabels" sheetId="5" r:id="rId6"/>
+    <x:sheet name="pvtCollapsedFields" sheetId="6" r:id="rId7"/>
+    <x:sheet name="pvtFieldAsValueAndLabel" sheetId="7" r:id="rId8"/>
+    <x:sheet name="pvtHideSubTotals" sheetId="8" r:id="rId9"/>
+    <x:sheet name="pvtFilter" sheetId="9" r:id="rId10"/>
+    <x:sheet name="pvtSort" sheetId="10" r:id="rId11"/>
+    <x:sheet name="pvtInteger" sheetId="11" r:id="rId12"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>

--- a/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
@@ -2155,9 +2155,267 @@
 </file>
 
 <file path=pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="xr">
+  <r>
+    <s v="Croissant"/>
+    <n v="101"/>
+    <n v="150"/>
+    <n v="60.2"/>
+    <s v="Apr"/>
+    <d v="2016-04-21T00:00:00"/>
+  </r>
+  <r>
+    <s v="Croissant"/>
+    <n v="101"/>
+    <n v="250"/>
+    <n v="50.42"/>
+    <s v="May"/>
+    <d v="2016-05-03T00:00:00"/>
+  </r>
+  <r>
+    <s v="Croissant"/>
+    <n v="101"/>
+    <n v="134"/>
+    <n v="22.12"/>
+    <s v="Jun"/>
+    <d v="2016-06-24T00:00:00"/>
+  </r>
+  <r>
+    <s v="Doughnut"/>
+    <n v="102"/>
+    <n v="250"/>
+    <n v="89.99"/>
+    <s v="Apr"/>
+    <d v="2017-04-23T00:00:00"/>
+  </r>
+  <r>
+    <s v="Doughnut"/>
+    <n v="102"/>
+    <n v="225"/>
+    <n v="70"/>
+    <s v="May"/>
+    <d v="2016-05-24T00:00:00"/>
+  </r>
+  <r>
+    <s v="Doughnut"/>
+    <n v="102"/>
+    <n v="210"/>
+    <n v="75.33"/>
+    <s v="Jun"/>
+    <d v="2016-06-02T00:00:00"/>
+  </r>
+  <r>
+    <s v="Bearclaw"/>
+    <n v="103"/>
+    <n v="134"/>
+    <n v="10.24"/>
+    <s v="Apr"/>
+    <d v="2016-04-27T00:00:00"/>
+  </r>
+  <r>
+    <s v="Bearclaw"/>
+    <n v="103"/>
+    <n v="184"/>
+    <n v="33.33"/>
+    <s v="May"/>
+    <d v="2016-05-20T00:00:00"/>
+  </r>
+  <r>
+    <s v="Bearclaw"/>
+    <n v="103"/>
+    <n v="124"/>
+    <n v="25"/>
+    <s v="Jun"/>
+    <d v="2017-06-05T00:00:00"/>
+  </r>
+  <r>
+    <s v="Danish"/>
+    <n v="104"/>
+    <n v="394"/>
+    <n v="-20.24"/>
+    <s v="Apr"/>
+    <d v="2017-04-24T00:00:00"/>
+  </r>
+  <r>
+    <s v="Danish"/>
+    <n v="104"/>
+    <n v="190"/>
+    <n v="60"/>
+    <s v="May"/>
+    <d v="2017-05-08T00:00:00"/>
+  </r>
+  <r>
+    <s v="Danish"/>
+    <n v="104"/>
+    <n v="221"/>
+    <n v="24.76"/>
+    <s v="Jun"/>
+    <d v="2016-06-21T00:00:00"/>
+  </r>
+  <r>
+    <s v="Scone"/>
+    <n v="105"/>
+    <n v="135"/>
+    <n v="0"/>
+    <s v="Apr"/>
+    <d v="2017-04-22T00:00:00"/>
+  </r>
+  <r>
+    <s v="SconE"/>
+    <n v="105"/>
+    <n v="122"/>
+    <n v="5.19"/>
+    <s v="May"/>
+    <d v="2017-05-03T00:00:00"/>
+  </r>
+  <r>
+    <s v="SCONE"/>
+    <n v="105"/>
+    <n v="243"/>
+    <n v="44.2"/>
+    <s v="Jun"/>
+    <d v="2017-06-14T00:00:00"/>
+  </r>
+  <r>
+    <s v="Scone"/>
+    <m/>
+    <n v="255"/>
+    <n v="18.4"/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
 </file>
 
 <file path=pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="xr">
+  <r>
+    <s v="Croissant"/>
+    <n v="101"/>
+    <n v="150"/>
+    <n v="60.2"/>
+    <s v="Apr"/>
+    <d v="2016-04-21T00:00:00"/>
+  </r>
+  <r>
+    <s v="Croissant"/>
+    <n v="101"/>
+    <n v="250"/>
+    <n v="50.42"/>
+    <s v="May"/>
+    <d v="2016-05-03T00:00:00"/>
+  </r>
+  <r>
+    <s v="Croissant"/>
+    <n v="101"/>
+    <n v="134"/>
+    <n v="22.12"/>
+    <s v="Jun"/>
+    <d v="2016-06-24T00:00:00"/>
+  </r>
+  <r>
+    <s v="Doughnut"/>
+    <n v="102"/>
+    <n v="250"/>
+    <n v="89.99"/>
+    <s v="Apr"/>
+    <d v="2017-04-23T00:00:00"/>
+  </r>
+  <r>
+    <s v="Doughnut"/>
+    <n v="102"/>
+    <n v="225"/>
+    <n v="70"/>
+    <s v="May"/>
+    <d v="2016-05-24T00:00:00"/>
+  </r>
+  <r>
+    <s v="Doughnut"/>
+    <n v="102"/>
+    <n v="210"/>
+    <n v="75.33"/>
+    <s v="Jun"/>
+    <d v="2016-06-02T00:00:00"/>
+  </r>
+  <r>
+    <s v="Bearclaw"/>
+    <n v="103"/>
+    <n v="134"/>
+    <n v="10.24"/>
+    <s v="Apr"/>
+    <d v="2016-04-27T00:00:00"/>
+  </r>
+  <r>
+    <s v="Bearclaw"/>
+    <n v="103"/>
+    <n v="184"/>
+    <n v="33.33"/>
+    <s v="May"/>
+    <d v="2016-05-20T00:00:00"/>
+  </r>
+  <r>
+    <s v="Bearclaw"/>
+    <n v="103"/>
+    <n v="124"/>
+    <n v="25"/>
+    <s v="Jun"/>
+    <d v="2017-06-05T00:00:00"/>
+  </r>
+  <r>
+    <s v="Danish"/>
+    <n v="104"/>
+    <n v="394"/>
+    <n v="-20.24"/>
+    <s v="Apr"/>
+    <d v="2017-04-24T00:00:00"/>
+  </r>
+  <r>
+    <s v="Danish"/>
+    <n v="104"/>
+    <n v="190"/>
+    <n v="60"/>
+    <s v="May"/>
+    <d v="2017-05-08T00:00:00"/>
+  </r>
+  <r>
+    <s v="Danish"/>
+    <n v="104"/>
+    <n v="221"/>
+    <n v="24.76"/>
+    <s v="Jun"/>
+    <d v="2016-06-21T00:00:00"/>
+  </r>
+  <r>
+    <s v="Scone"/>
+    <n v="105"/>
+    <n v="135"/>
+    <n v="0"/>
+    <s v="Apr"/>
+    <d v="2017-04-22T00:00:00"/>
+  </r>
+  <r>
+    <s v="SconE"/>
+    <n v="105"/>
+    <n v="122"/>
+    <n v="5.19"/>
+    <s v="May"/>
+    <d v="2017-05-03T00:00:00"/>
+  </r>
+  <r>
+    <s v="SCONE"/>
+    <n v="105"/>
+    <n v="243"/>
+    <n v="44.2"/>
+    <s v="Jun"/>
+    <d v="2017-06-14T00:00:00"/>
+  </r>
+  <r>
+    <s v="Scone"/>
+    <m/>
+    <n v="255"/>
+    <n v="18.4"/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
 </file>
--- a/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
@@ -22,7 +22,6 @@
   <x:calcPr calcId="125725"/>
   <x:pivotCaches>
     <x:pivotCache cacheId="0" r:id="rId15"/>
-    <x:pivotCache cacheId="1" r:id="rId16"/>
   </x:pivotCaches>
 </x:workbook>
 </file>
@@ -228,7 +227,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtInteger" cacheId="1" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtInteger" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -921,7 +920,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtFilter" cacheId="1" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtFilter" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
   <x:location ref="A5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
@@ -1769,7 +1768,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId17"/>
+    <x:tablePart r:id="rId16"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -1965,101 +1964,6 @@
 </file>
 
 <file path=pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3">
-  <x:cacheSource type="worksheet">
-    <x:worksheetSource ref="A1:F17" sheet="PastrySalesData"/>
-  </x:cacheSource>
-  <x:cacheFields>
-    <x:cacheField name="Name">
-      <x:sharedItems count="5">
-        <x:s v="Croissant"/>
-        <x:s v="Doughnut"/>
-        <x:s v="Bearclaw"/>
-        <x:s v="Danish"/>
-        <x:s v="Scone"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="Code">
-      <x:sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="6">
-        <x:n v="101"/>
-        <x:n v="102"/>
-        <x:n v="103"/>
-        <x:n v="104"/>
-        <x:n v="105"/>
-        <x:m/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="NumberOfOrders">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14">
-        <x:n v="150"/>
-        <x:n v="250"/>
-        <x:n v="134"/>
-        <x:n v="225"/>
-        <x:n v="210"/>
-        <x:n v="184"/>
-        <x:n v="124"/>
-        <x:n v="394"/>
-        <x:n v="190"/>
-        <x:n v="221"/>
-        <x:n v="135"/>
-        <x:n v="122"/>
-        <x:n v="243"/>
-        <x:n v="255"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="Quality">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16">
-        <x:n v="60.2"/>
-        <x:n v="50.42"/>
-        <x:n v="22.12"/>
-        <x:n v="89.99"/>
-        <x:n v="70"/>
-        <x:n v="75.33"/>
-        <x:n v="10.24"/>
-        <x:n v="33.33"/>
-        <x:n v="25"/>
-        <x:n v="-20.24"/>
-        <x:n v="60"/>
-        <x:n v="24.76"/>
-        <x:n v="0"/>
-        <x:n v="5.19"/>
-        <x:n v="44.2"/>
-        <x:n v="18.4"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="Month">
-      <x:sharedItems containsBlank="1" count="4">
-        <x:s v="Apr"/>
-        <x:s v="May"/>
-        <x:s v="Jun"/>
-        <x:m/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="BakeDate">
-      <x:sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="16">
-        <x:d v="2016-04-21T00:00:00"/>
-        <x:d v="2016-05-03T00:00:00"/>
-        <x:d v="2016-06-24T00:00:00"/>
-        <x:d v="2017-04-23T00:00:00"/>
-        <x:d v="2016-05-24T00:00:00"/>
-        <x:d v="2016-06-02T00:00:00"/>
-        <x:d v="2016-04-27T00:00:00"/>
-        <x:d v="2016-05-20T00:00:00"/>
-        <x:d v="2017-06-05T00:00:00"/>
-        <x:d v="2017-04-24T00:00:00"/>
-        <x:d v="2017-05-08T00:00:00"/>
-        <x:d v="2016-06-21T00:00:00"/>
-        <x:d v="2017-04-22T00:00:00"/>
-        <x:d v="2017-05-03T00:00:00"/>
-        <x:d v="2017-06-14T00:00:00"/>
-        <x:m/>
-      </x:sharedItems>
-    </x:cacheField>
-  </x:cacheFields>
-</x:pivotCacheDefinition>
-</file>
-
-<file path=pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3">
   <x:cacheSource type="worksheet">
     <x:worksheetSource name="PastrySalesData"/>
@@ -2285,137 +2189,4 @@
     <m/>
   </r>
 </pivotCacheRecords>
-</file>
-
-<file path=pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="xr">
-  <r>
-    <s v="Croissant"/>
-    <n v="101"/>
-    <n v="150"/>
-    <n v="60.2"/>
-    <s v="Apr"/>
-    <d v="2016-04-21T00:00:00"/>
-  </r>
-  <r>
-    <s v="Croissant"/>
-    <n v="101"/>
-    <n v="250"/>
-    <n v="50.42"/>
-    <s v="May"/>
-    <d v="2016-05-03T00:00:00"/>
-  </r>
-  <r>
-    <s v="Croissant"/>
-    <n v="101"/>
-    <n v="134"/>
-    <n v="22.12"/>
-    <s v="Jun"/>
-    <d v="2016-06-24T00:00:00"/>
-  </r>
-  <r>
-    <s v="Doughnut"/>
-    <n v="102"/>
-    <n v="250"/>
-    <n v="89.99"/>
-    <s v="Apr"/>
-    <d v="2017-04-23T00:00:00"/>
-  </r>
-  <r>
-    <s v="Doughnut"/>
-    <n v="102"/>
-    <n v="225"/>
-    <n v="70"/>
-    <s v="May"/>
-    <d v="2016-05-24T00:00:00"/>
-  </r>
-  <r>
-    <s v="Doughnut"/>
-    <n v="102"/>
-    <n v="210"/>
-    <n v="75.33"/>
-    <s v="Jun"/>
-    <d v="2016-06-02T00:00:00"/>
-  </r>
-  <r>
-    <s v="Bearclaw"/>
-    <n v="103"/>
-    <n v="134"/>
-    <n v="10.24"/>
-    <s v="Apr"/>
-    <d v="2016-04-27T00:00:00"/>
-  </r>
-  <r>
-    <s v="Bearclaw"/>
-    <n v="103"/>
-    <n v="184"/>
-    <n v="33.33"/>
-    <s v="May"/>
-    <d v="2016-05-20T00:00:00"/>
-  </r>
-  <r>
-    <s v="Bearclaw"/>
-    <n v="103"/>
-    <n v="124"/>
-    <n v="25"/>
-    <s v="Jun"/>
-    <d v="2017-06-05T00:00:00"/>
-  </r>
-  <r>
-    <s v="Danish"/>
-    <n v="104"/>
-    <n v="394"/>
-    <n v="-20.24"/>
-    <s v="Apr"/>
-    <d v="2017-04-24T00:00:00"/>
-  </r>
-  <r>
-    <s v="Danish"/>
-    <n v="104"/>
-    <n v="190"/>
-    <n v="60"/>
-    <s v="May"/>
-    <d v="2017-05-08T00:00:00"/>
-  </r>
-  <r>
-    <s v="Danish"/>
-    <n v="104"/>
-    <n v="221"/>
-    <n v="24.76"/>
-    <s v="Jun"/>
-    <d v="2016-06-21T00:00:00"/>
-  </r>
-  <r>
-    <s v="Scone"/>
-    <n v="105"/>
-    <n v="135"/>
-    <n v="0"/>
-    <s v="Apr"/>
-    <d v="2017-04-22T00:00:00"/>
-  </r>
-  <r>
-    <s v="SconE"/>
-    <n v="105"/>
-    <n v="122"/>
-    <n v="5.19"/>
-    <s v="May"/>
-    <d v="2017-05-03T00:00:00"/>
-  </r>
-  <r>
-    <s v="SCONE"/>
-    <n v="105"/>
-    <n v="243"/>
-    <n v="44.2"/>
-    <s v="Jun"/>
-    <d v="2017-06-14T00:00:00"/>
-  </r>
-  <r>
-    <s v="Scone"/>
-    <m/>
-    <n v="255"/>
-    <n v="18.4"/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
 </file>
--- a/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/PivotTables/PivotTables.xlsx
@@ -146,972 +146,529 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
-  <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <x:pivotFields count="6">
-    <x:pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
-      <x:items count="5">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Code" defaultSubtotal="0"/>
-    <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Quality" defaultSubtotal="0"/>
-    <x:pivotField name="Month" axis="axisCol" showAll="0" defaultSubtotal="0">
-      <x:items count="4">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="BakeDate" defaultSubtotal="0"/>
-  </x:pivotFields>
-  <x:rowFields count="1">
-    <x:field x="0"/>
-  </x:rowFields>
-  <x:rowItems count="6">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:colFields count="1">
-    <x:field x="4"/>
-  </x:colFields>
-  <x:colItems count="5">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:colItems>
-  <x:dataFields count="1">
-    <x:dataField name="NumberOfOrdersPercentageOfBearclaw" fld="2" subtotal="sum" showDataAs="percent" baseField="0" baseItem="2" numFmtId="164"/>
-  </x:dataFields>
-  <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" outline="1">
+  <location ref="A1" firstHeaderRow="0" firstDataRow="0" firstDataCol="0"/>
+  <pivotFields count="6">
+    <pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField name="Month" axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <dataFields count="1">
+    <dataField name="NumberOfOrdersPercentageOfBearclaw" fld="2" showDataAs="percent" baseField="0" baseItem="2" numFmtId="164"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtInteger" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
-  <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <x:pivotFields count="6">
-    <x:pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
-      <x:items count="5">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Code" axis="axisRow" showAll="0" defaultSubtotal="0">
-      <x:items count="6">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-        <x:item x="5"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Quality" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Month" axis="axisCol" showAll="0" defaultSubtotal="0">
-      <x:items count="4">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="BakeDate" axis="axisRow" showAll="0" defaultSubtotal="0">
-      <x:items count="16">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-        <x:item x="5"/>
-        <x:item x="6"/>
-        <x:item x="7"/>
-        <x:item x="8"/>
-        <x:item x="9"/>
-        <x:item x="10"/>
-        <x:item x="11"/>
-        <x:item x="12"/>
-        <x:item x="13"/>
-        <x:item x="14"/>
-        <x:item x="15"/>
-      </x:items>
-    </x:pivotField>
-  </x:pivotFields>
-  <x:rowFields count="3">
-    <x:field x="0"/>
-    <x:field x="1"/>
-    <x:field x="5"/>
-  </x:rowFields>
-  <x:rowItems count="30">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i>
-      <x:x v="5"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i>
-      <x:x v="5"/>
-    </x:i>
-    <x:i>
-      <x:x v="6"/>
-    </x:i>
-    <x:i>
-      <x:x v="7"/>
-    </x:i>
-    <x:i>
-      <x:x v="8"/>
-    </x:i>
-    <x:i>
-      <x:x v="9"/>
-    </x:i>
-    <x:i>
-      <x:x v="10"/>
-    </x:i>
-    <x:i>
-      <x:x v="11"/>
-    </x:i>
-    <x:i>
-      <x:x v="12"/>
-    </x:i>
-    <x:i>
-      <x:x v="13"/>
-    </x:i>
-    <x:i>
-      <x:x v="14"/>
-    </x:i>
-    <x:i>
-      <x:x v="15"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:colFields count="2">
-    <x:field x="4"/>
-    <x:field x="-2"/>
-  </x:colFields>
-  <x:colItems count="5">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:colItems>
-  <x:dataFields count="2">
-    <x:dataField name="NumberOfOrders" fld="2" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
-    <x:dataField name="Quality" fld="3" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
-  </x:dataFields>
-  <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtInteger" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" outline="1">
+  <location ref="A1" firstHeaderRow="0" firstDataRow="0" firstDataCol="0"/>
+  <pivotFields count="6">
+    <pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField name="Code" axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField name="Month" axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField name="BakeDate" axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="16">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="5"/>
+  </rowFields>
+  <colFields count="2">
+    <field x="4"/>
+    <field x="-2"/>
+  </colFields>
+  <dataFields count="2">
+    <dataField name="NumberOfOrders" fld="2"/>
+    <dataField name="Quality" fld="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="0" dataOnRows="1" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
-  <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <x:pivotFields count="6">
-    <x:pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
-      <x:items count="5">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Code" defaultSubtotal="0"/>
-    <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Quality" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Month" axis="axisCol" showAll="0" defaultSubtotal="0">
-      <x:items count="4">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="BakeDate" defaultSubtotal="0"/>
-  </x:pivotFields>
-  <x:rowFields count="2">
-    <x:field x="-2"/>
-    <x:field x="0"/>
-  </x:rowFields>
-  <x:rowItems count="6">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:colFields count="1">
-    <x:field x="4"/>
-  </x:colFields>
-  <x:colItems count="5">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:colItems>
-  <x:dataFields count="2">
-    <x:dataField name="NumberOfOrdersPercentageOfBearclaw" fld="2" subtotal="sum" showDataAs="percent" baseField="0" baseItem="2" numFmtId="164"/>
-    <x:dataField name="Sum of Quality" fld="3" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="4"/>
-  </x:dataFields>
-  <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" outline="1">
+  <location ref="A1" firstHeaderRow="0" firstDataRow="0" firstDataCol="0"/>
+  <pivotFields count="6">
+    <pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField name="Month" axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="-2"/>
+    <field x="0"/>
+  </rowFields>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <dataFields count="2">
+    <dataField name="NumberOfOrdersPercentageOfBearclaw" fld="2" showDataAs="percent" baseField="0" baseItem="2" numFmtId="164"/>
+    <dataField name="Sum of Quality" fld="3" numFmtId="4"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
-  <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <x:pivotFields count="6">
-    <x:pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
-      <x:items count="5">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Code" defaultSubtotal="0"/>
-    <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Quality" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Month" axis="axisCol" showAll="0" defaultSubtotal="0">
-      <x:items count="4">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="BakeDate" defaultSubtotal="0"/>
-  </x:pivotFields>
-  <x:rowFields count="1">
-    <x:field x="0"/>
-  </x:rowFields>
-  <x:rowItems count="6">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:colFields count="2">
-    <x:field x="4"/>
-    <x:field x="-2"/>
-  </x:colFields>
-  <x:colItems count="5">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:colItems>
-  <x:dataFields count="3">
-    <x:dataField name="NumberOfOrdersPercentageOfBearclaw" fld="2" subtotal="sum" showDataAs="percent" baseField="0" baseItem="2" numFmtId="164"/>
-    <x:dataField name="Sum of Quality" fld="3" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="4"/>
-    <x:dataField name="Sum of NumberOfOrders" fld="2" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
-  </x:dataFields>
-  <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" outline="1">
+  <location ref="A1" firstHeaderRow="0" firstDataRow="0" firstDataCol="0"/>
+  <pivotFields count="6">
+    <pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField name="Month" axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <colFields count="2">
+    <field x="4"/>
+    <field x="-2"/>
+  </colFields>
+  <dataFields count="3">
+    <dataField name="NumberOfOrdersPercentageOfBearclaw" fld="2" showDataAs="percent" baseField="0" baseItem="2" numFmtId="164"/>
+    <dataField name="Sum of Quality" fld="3" numFmtId="4"/>
+    <dataField name="Sum of NumberOfOrders" fld="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtNoColumnLabels" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1" rowHeaderCaption="Pastry name">
-  <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <x:pivotFields count="6">
-    <x:pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
-      <x:items count="5">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Code" defaultSubtotal="0"/>
-    <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Quality" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Month" axis="axisRow" showAll="0" defaultSubtotal="0">
-      <x:items count="4">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="BakeDate" defaultSubtotal="0"/>
-  </x:pivotFields>
-  <x:rowFields count="2">
-    <x:field x="0"/>
-    <x:field x="4"/>
-  </x:rowFields>
-  <x:rowItems count="11">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:colFields count="1">
-    <x:field x="-2"/>
-  </x:colFields>
-  <x:colItems count="2">
-    <x:i i="0">
-      <x:x v="0"/>
-    </x:i>
-    <x:i i="1">
-      <x:x v="1"/>
-    </x:i>
-  </x:colItems>
-  <x:dataFields count="2">
-    <x:dataField name="NumberOfOrders" fld="2" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
-    <x:dataField name="Quality" fld="3" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
-  </x:dataFields>
-  <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtNoColumnLabels" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" outline="1" rowHeaderCaption="Pastry name">
+  <location ref="A1" firstHeaderRow="0" firstDataRow="0" firstDataCol="0"/>
+  <pivotFields count="6">
+    <pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField name="Month" axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="4"/>
+  </rowFields>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <dataFields count="2">
+    <dataField name="NumberOfOrders" fld="2"/>
+    <dataField name="Quality" fld="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtCollapsedFields" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
-  <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <x:pivotFields count="6">
-    <x:pivotField name="Name" axis="axisRow" allDrilled="1" showAll="0" defaultSubtotal="0">
-      <x:items count="5">
-        <x:item sd="0" x="0"/>
-        <x:item sd="0" x="1"/>
-        <x:item sd="0" x="2"/>
-        <x:item sd="0" x="3"/>
-        <x:item sd="0" x="4"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Code" defaultSubtotal="0"/>
-    <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Quality" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Month" axis="axisRow" allDrilled="1" showAll="0" defaultSubtotal="0">
-      <x:items count="4">
-        <x:item sd="0" x="0"/>
-        <x:item sd="0" x="1"/>
-        <x:item sd="0" x="2"/>
-        <x:item sd="0" x="3"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="BakeDate" defaultSubtotal="0"/>
-  </x:pivotFields>
-  <x:rowFields count="2">
-    <x:field x="0"/>
-    <x:field x="4"/>
-  </x:rowFields>
-  <x:rowItems count="11">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:colFields count="1">
-    <x:field x="-2"/>
-  </x:colFields>
-  <x:colItems count="2">
-    <x:i i="0">
-      <x:x v="0"/>
-    </x:i>
-    <x:i i="1">
-      <x:x v="1"/>
-    </x:i>
-  </x:colItems>
-  <x:dataFields count="2">
-    <x:dataField name="NumberOfOrders" fld="2" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
-    <x:dataField name="Quality" fld="3" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
-  </x:dataFields>
-  <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtCollapsedFields" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" outline="1">
+  <location ref="A1" firstHeaderRow="0" firstDataRow="0" firstDataCol="0"/>
+  <pivotFields count="6">
+    <pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField name="Month" axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="4"/>
+  </rowFields>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <dataFields count="2">
+    <dataField name="NumberOfOrders" fld="2"/>
+    <dataField name="Quality" fld="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtFieldAsValueAndLabel" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
-  <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <x:pivotFields count="6">
-    <x:pivotField name="Name" axis="axisRow" dataField="1" showAll="0" defaultSubtotal="0">
-      <x:items count="5">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Code" defaultSubtotal="0"/>
-    <x:pivotField name="NumberOfOrders" defaultSubtotal="0"/>
-    <x:pivotField name="Quality" defaultSubtotal="0"/>
-    <x:pivotField name="Month" axis="axisRow" showAll="0" defaultSubtotal="0">
-      <x:items count="4">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="BakeDate" defaultSubtotal="0"/>
-  </x:pivotFields>
-  <x:rowFields count="2">
-    <x:field x="0"/>
-    <x:field x="4"/>
-  </x:rowFields>
-  <x:rowItems count="11">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:colItems count="1">
-    <x:i i="0">
-      <x:x v="0"/>
-    </x:i>
-  </x:colItems>
-  <x:dataFields count="1">
-    <x:dataField name="Name" fld="0" subtotal="count" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
-  </x:dataFields>
-  <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtFieldAsValueAndLabel" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" outline="1">
+  <location ref="A1" firstHeaderRow="0" firstDataRow="0" firstDataCol="0"/>
+  <pivotFields count="6">
+    <pivotField name="Name" axis="axisRow" dataField="1" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField name="Month" axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="4"/>
+  </rowFields>
+  <dataFields count="1">
+    <dataField name="Name" fld="0" subtotal="count"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtHidesubTotals" cacheId="0" dataOnRows="1" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1" colHeaderCaption="Measures">
-  <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <x:pivotFields count="6">
-    <x:pivotField name="Name" axis="axisCol" showAll="0" defaultSubtotal="0">
-      <x:items count="5">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Code" defaultSubtotal="0"/>
-    <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Quality" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Month" axis="axisCol" showAll="0" defaultSubtotal="0">
-      <x:items count="4">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="BakeDate" defaultSubtotal="0"/>
-  </x:pivotFields>
-  <x:rowFields count="1">
-    <x:field x="-2"/>
-  </x:rowFields>
-  <x:colFields count="2">
-    <x:field x="4"/>
-    <x:field x="0"/>
-  </x:colFields>
-  <x:colItems count="11">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:colItems>
-  <x:dataFields count="2">
-    <x:dataField name="NumberOfOrdersPercentageOfBearclaw" fld="2" subtotal="sum" showDataAs="percent" baseField="0" baseItem="2" numFmtId="164"/>
-    <x:dataField name="Sum of Quality" fld="3" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="4"/>
-  </x:dataFields>
-  <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtHidesubTotals" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" outline="1" colHeaderCaption="Measures">
+  <location ref="A1" firstHeaderRow="0" firstDataRow="0" firstDataCol="0"/>
+  <pivotFields count="6">
+    <pivotField name="Name" axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField name="Month" axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <colFields count="2">
+    <field x="4"/>
+    <field x="0"/>
+  </colFields>
+  <dataFields count="2">
+    <dataField name="NumberOfOrdersPercentageOfBearclaw" fld="2" showDataAs="percent" baseField="0" baseItem="2" numFmtId="164"/>
+    <dataField name="Sum of Quality" fld="3" numFmtId="4"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtFilter" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
-  <x:location ref="A5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <x:pivotFields count="6">
-    <x:pivotField name="Name" axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <x:items count="5">
-        <x:item h="1" x="0"/>
-        <x:item x="1"/>
-        <x:item h="1" x="2"/>
-        <x:item h="1" x="3"/>
-        <x:item x="4"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Code" defaultSubtotal="0"/>
-    <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Quality" axis="axisPage" showAll="0" defaultSubtotal="0">
-      <x:items count="16">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-        <x:item x="5"/>
-        <x:item x="6"/>
-        <x:item x="7"/>
-        <x:item x="8"/>
-        <x:item x="9"/>
-        <x:item x="10"/>
-        <x:item x="11"/>
-        <x:item x="12"/>
-        <x:item x="13"/>
-        <x:item x="14"/>
-        <x:item x="15"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Month" axis="axisRow" showAll="0" defaultSubtotal="0">
-      <x:items count="4">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="BakeDate" axis="axisPage" showAll="0" defaultSubtotal="0">
-      <x:items count="16">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-        <x:item x="5"/>
-        <x:item x="6"/>
-        <x:item x="7"/>
-        <x:item x="8"/>
-        <x:item x="9"/>
-        <x:item x="10"/>
-        <x:item x="11"/>
-        <x:item x="12"/>
-        <x:item x="13"/>
-        <x:item x="14"/>
-        <x:item x="15"/>
-      </x:items>
-    </x:pivotField>
-  </x:pivotFields>
-  <x:rowFields count="1">
-    <x:field x="4"/>
-  </x:rowFields>
-  <x:rowItems count="5">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:colItems count="1">
-    <x:i i="0">
-      <x:x v="0"/>
-    </x:i>
-  </x:colItems>
-  <x:pageFields count="3">
-    <x:pageField fld="0" hier="-1"/>
-    <x:pageField fld="3" item="13" hier="-1"/>
-    <x:pageField fld="5" item="13" hier="-1"/>
-  </x:pageFields>
-  <x:dataFields count="1">
-    <x:dataField name="NumberOfOrders" fld="2" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
-  </x:dataFields>
-  <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtFilter" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" outline="1">
+  <location ref="A5" firstHeaderRow="0" firstDataRow="0" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField name="Name" axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField name="Quality" axis="axisPage" showAll="0">
+      <items count="17">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Month" axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField name="BakeDate" axis="axisPage" showAll="0">
+      <items count="17">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <pageFields count="3">
+    <pageField fld="0"/>
+    <pageField fld="3" item="13"/>
+    <pageField fld="5" item="13"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="NumberOfOrders" fld="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtSort" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1" rowHeaderCaption="Pastry name">
-  <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <x:pivotFields count="6">
-    <x:pivotField name="Name" axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <x:items count="5">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Code" defaultSubtotal="0"/>
-    <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Quality" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Month" axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <x:items count="4">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="BakeDate" defaultSubtotal="0"/>
-  </x:pivotFields>
-  <x:rowFields count="2">
-    <x:field x="0"/>
-    <x:field x="4"/>
-  </x:rowFields>
-  <x:rowItems count="11">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:colFields count="1">
-    <x:field x="-2"/>
-  </x:colFields>
-  <x:colItems count="2">
-    <x:i i="0">
-      <x:x v="0"/>
-    </x:i>
-    <x:i i="1">
-      <x:x v="1"/>
-    </x:i>
-  </x:colItems>
-  <x:dataFields count="2">
-    <x:dataField name="NumberOfOrders" fld="2" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
-    <x:dataField name="Quality" fld="3" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
-  </x:dataFields>
-  <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvtSort" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" outline="1" rowHeaderCaption="Pastry name">
+  <location ref="A1" firstHeaderRow="0" firstDataRow="0" firstDataCol="0"/>
+  <pivotFields count="6">
+    <pivotField name="Name" axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField name="Month" axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="4"/>
+  </rowFields>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <dataFields count="2">
+    <dataField name="NumberOfOrders" fld="2"/>
+    <dataField name="Quality" fld="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
